--- a/Pracownicy.xlsx
+++ b/Pracownicy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samur\Documents\GitHub\Stacja_Paliw\gas_station\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samur\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E05144E-143D-4A7C-9A03-694DCDCD5EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BB2803-6935-418F-8CF5-4F982F0960E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="948" windowWidth="21576" windowHeight="11028" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pracownicy" sheetId="1" r:id="rId1"/>
@@ -400,6 +400,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -429,7 +432,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -452,31 +455,27 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -756,1050 +755,1101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E61"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="8"/>
+    <col min="2" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="8.88671875" style="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="2">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>512345678</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="3">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>513456789</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="4">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>514567890</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="5">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>515678901</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="6">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>516789012</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="7">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>517890123</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="5">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="8">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>518901234</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="5">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="9">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>519012345</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="5">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="10">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>520123456</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="5">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="11">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>521234567</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="5">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="12">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>522345678</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="13">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>523456789</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="14">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <v>524567890</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="5">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="15">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <v>525678901</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="5">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="16">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="1">
         <v>526789012</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="17">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="1">
         <v>527890123</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="5">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="18">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
         <v>528901234</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="5">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="19">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="1">
         <v>529012345</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="20">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="1">
         <v>530123456</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="21">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="1">
         <v>531234567</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="5">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="22">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="1">
         <v>532345678</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="5">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="23">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="1">
         <v>533456789</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="5">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="24">
+      <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="1">
         <v>534567890</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="25">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="1">
         <v>535678901</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="26">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="1">
         <v>536789012</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="5">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="27">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="1">
         <v>537890123</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="5">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="28">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="1">
         <v>538901234</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="5">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="29">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="1">
         <v>539012345</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="5">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="30">
+      <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="1">
         <v>540123456</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="31">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="1">
         <v>541234567</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="32">
+      <c r="A32" s="8">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="1">
         <v>542345678</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="33">
+      <c r="A33" s="8">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="1">
         <v>543456789</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="5">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="34">
+      <c r="A34" s="8">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="1">
         <v>544567890</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="5">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="35">
+      <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="1">
         <v>545678901</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="5">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="36">
+      <c r="A36" s="8">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="1">
         <v>546789012</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="5">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="37">
+      <c r="A37" s="8">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="1">
         <v>547890123</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="5">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="38">
+      <c r="A38" s="8">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="1">
         <v>548901234</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="5">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="39">
+      <c r="A39" s="8">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="1">
         <v>549012345</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="40">
+      <c r="A40" s="8">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="1">
         <v>550123456</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="41">
+      <c r="A41" s="8">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="1">
         <v>551234567</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="5">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="42">
+      <c r="A42" s="8">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="1">
         <v>552345678</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="5">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="43">
+      <c r="A43" s="8">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="1">
         <v>553456789</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="5">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="44">
+      <c r="A44" s="8">
         <v>43</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="1">
         <v>554567890</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="45">
+      <c r="A45" s="8">
         <v>44</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="1">
         <v>555678901</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="5">
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="46">
+      <c r="A46" s="8">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="1">
         <v>556789012</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="5">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="47">
+      <c r="A47" s="8">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="1">
         <v>557890123</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="48">
+      <c r="A48" s="8">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="1">
         <v>558901234</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="5">
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="49">
+      <c r="A49" s="8">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="1">
         <v>559012345</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="5">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="50">
+      <c r="A50" s="8">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="1">
         <v>560123456</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="51">
+      <c r="A51" s="8">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="1">
         <v>561234567</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="5">
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="52">
+      <c r="A52" s="8">
         <v>51</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="1">
         <v>562345678</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="5">
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="53">
+      <c r="A53" s="8">
         <v>52</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="1">
         <v>563456789</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="54">
+      <c r="A54" s="8">
         <v>53</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="1">
         <v>564567890</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="55">
+      <c r="A55" s="9">
         <v>54</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="2">
         <v>565678901</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="6">
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="56">
+      <c r="A56" s="8">
         <v>55</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="1">
         <v>566789012</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="5">
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="57">
+      <c r="A57" s="8">
         <v>56</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="1">
         <v>567890123</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="5">
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="58">
+      <c r="A58" s="8">
         <v>57</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="1">
         <v>568901234</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="59">
+      <c r="A59" s="8">
         <v>58</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="1">
         <v>569012345</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="5">
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="60">
+      <c r="A60" s="8">
         <v>59</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="1">
         <v>570123456</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
+    <row spans="1:5" x14ac:dyDescent="0.3" outlineLevel="0" r="61">
+      <c r="A61" s="8">
         <v>60</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="1">
         <v>571234567</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="5">
         <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="62">
+      <c r="A62" s="8">
+        <v>64</v>
+      </c>
+      <c r="B62" s="8" t="inlineStr">
+        <is>
+          <t>Stefan</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>Wisniewski</t>
+        </is>
+      </c>
+      <c r="D62" s="8" t="inlineStr">
+        <is>
+          <t>428624798</t>
+        </is>
+      </c>
+      <c r="E62" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="63">
+      <c r="A63" s="8">
+        <v>82</v>
+      </c>
+      <c r="B63" s="8" t="inlineStr">
+        <is>
+          <t>Stefan</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>Wisniewski</t>
+        </is>
+      </c>
+      <c r="D63" s="8" t="inlineStr">
+        <is>
+          <t>428624798</t>
+        </is>
+      </c>
+      <c r="E63" s="8">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
